--- a/attendance-files/BMOD/BMOD Attendance - B.xlsx
+++ b/attendance-files/BMOD/BMOD Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="199">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -681,13 +681,13 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1126,23 +1126,23 @@
     <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="E7" s="35">
         <f t="shared" ref="E7:E91" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F91" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>40</v>
@@ -1682,7 +1682,7 @@
       <c r="K7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="36" t="s">
@@ -1697,26 +1697,36 @@
       <c r="P7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Q7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1734,16 +1744,16 @@
       </c>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="36" t="s">
@@ -1755,7 +1765,7 @@
       <c r="K8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="36" t="s">
@@ -1770,26 +1780,36 @@
       <c r="P8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Q8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1807,16 +1827,16 @@
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="36" t="s">
@@ -1828,7 +1848,7 @@
       <c r="K9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="36" t="s">
@@ -1843,26 +1863,36 @@
       <c r="P9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Q9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1880,16 +1910,16 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="36" t="s">
@@ -1901,7 +1931,7 @@
       <c r="K10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -1916,26 +1946,36 @@
       <c r="P10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Q10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1953,16 +1993,16 @@
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="36" t="s">
@@ -1974,7 +2014,7 @@
       <c r="K11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="36" t="s">
@@ -1989,26 +2029,36 @@
       <c r="P11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Q11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -2026,16 +2076,16 @@
       </c>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="36" t="s">
@@ -2047,7 +2097,7 @@
       <c r="K12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M12" s="36" t="s">
@@ -2062,26 +2112,36 @@
       <c r="P12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Q12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -2103,12 +2163,12 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="36" t="s">
@@ -2120,7 +2180,7 @@
       <c r="K13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="36" t="s">
@@ -2135,26 +2195,36 @@
       <c r="P13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Q13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -2172,16 +2242,16 @@
       </c>
       <c r="E14" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="36" t="s">
@@ -2193,7 +2263,7 @@
       <c r="K14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="36" t="s">
@@ -2208,26 +2278,36 @@
       <c r="P14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Q14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -2245,16 +2325,16 @@
       </c>
       <c r="E15" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="36" t="s">
@@ -2266,7 +2346,7 @@
       <c r="K15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M15" s="36" t="s">
@@ -2281,26 +2361,36 @@
       <c r="P15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Q15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2318,16 +2408,16 @@
       </c>
       <c r="E16" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="36" t="s">
@@ -2339,7 +2429,7 @@
       <c r="K16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="36" t="s">
@@ -2354,26 +2444,36 @@
       <c r="P16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Q16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2395,12 +2495,12 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="36" t="s">
@@ -2412,7 +2512,7 @@
       <c r="K17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -2427,26 +2527,36 @@
       <c r="P17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Q17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2468,12 +2578,12 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I18" s="36" t="s">
@@ -2485,7 +2595,7 @@
       <c r="K18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M18" s="36" t="s">
@@ -2500,26 +2610,36 @@
       <c r="P18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Q18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2537,16 +2657,16 @@
       </c>
       <c r="E19" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="36" t="s">
@@ -2558,7 +2678,7 @@
       <c r="K19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M19" s="36" t="s">
@@ -2573,26 +2693,36 @@
       <c r="P19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Q19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2614,12 +2744,12 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="36" t="s">
@@ -2631,7 +2761,7 @@
       <c r="K20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="36" t="s">
@@ -2646,26 +2776,36 @@
       <c r="P20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Q20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2683,16 +2823,16 @@
       </c>
       <c r="E21" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I21" s="36" t="s">
@@ -2704,7 +2844,7 @@
       <c r="K21" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M21" s="36" t="s">
@@ -2719,26 +2859,36 @@
       <c r="P21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Q21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2756,16 +2906,16 @@
       </c>
       <c r="E22" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I22" s="36" t="s">
@@ -2777,7 +2927,7 @@
       <c r="K22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M22" s="36" t="s">
@@ -2792,26 +2942,36 @@
       <c r="P22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Q22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2829,16 +2989,16 @@
       </c>
       <c r="E23" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="36" t="s">
@@ -2850,7 +3010,7 @@
       <c r="K23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M23" s="36" t="s">
@@ -2865,26 +3025,36 @@
       <c r="P23" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Q23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2902,16 +3072,16 @@
       </c>
       <c r="E24" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I24" s="36" t="s">
@@ -2923,7 +3093,7 @@
       <c r="K24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M24" s="36" t="s">
@@ -2938,26 +3108,36 @@
       <c r="P24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T24" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Q24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z24" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2975,16 +3155,16 @@
       </c>
       <c r="E25" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I25" s="36" t="s">
@@ -2996,7 +3176,7 @@
       <c r="K25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M25" s="36" t="s">
@@ -3011,26 +3191,36 @@
       <c r="P25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Q25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3052,12 +3242,12 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I26" s="36" t="s">
@@ -3069,7 +3259,7 @@
       <c r="K26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M26" s="36" t="s">
@@ -3084,26 +3274,36 @@
       <c r="P26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Q26" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3121,16 +3321,16 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I27" s="36" t="s">
@@ -3142,7 +3342,7 @@
       <c r="K27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M27" s="36" t="s">
@@ -3157,26 +3357,36 @@
       <c r="P27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T27" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Q27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3194,16 +3404,16 @@
       </c>
       <c r="E28" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I28" s="36" t="s">
@@ -3215,7 +3425,7 @@
       <c r="K28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M28" s="36" t="s">
@@ -3230,26 +3440,36 @@
       <c r="P28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Q28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y28" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z28" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3267,16 +3487,16 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I29" s="36" t="s">
@@ -3288,7 +3508,7 @@
       <c r="K29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M29" s="36" t="s">
@@ -3303,26 +3523,36 @@
       <c r="P29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Q29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3340,16 +3570,16 @@
       </c>
       <c r="E30" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I30" s="36" t="s">
@@ -3361,7 +3591,7 @@
       <c r="K30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M30" s="36" t="s">
@@ -3376,26 +3606,36 @@
       <c r="P30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
+      <c r="Q30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3413,16 +3653,16 @@
       </c>
       <c r="E31" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I31" s="36" t="s">
@@ -3434,7 +3674,7 @@
       <c r="K31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M31" s="36" t="s">
@@ -3449,26 +3689,36 @@
       <c r="P31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q31" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R31" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S31" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
+      <c r="Q31" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z31" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3486,16 +3736,16 @@
       </c>
       <c r="E32" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I32" s="36" t="s">
@@ -3507,7 +3757,7 @@
       <c r="K32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M32" s="36" t="s">
@@ -3522,26 +3772,36 @@
       <c r="P32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S32" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
+      <c r="Q32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3559,16 +3819,16 @@
       </c>
       <c r="E33" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I33" s="36" t="s">
@@ -3580,7 +3840,7 @@
       <c r="K33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M33" s="36" t="s">
@@ -3595,26 +3855,36 @@
       <c r="P33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
+      <c r="Q33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3632,16 +3902,16 @@
       </c>
       <c r="E34" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I34" s="36" t="s">
@@ -3653,7 +3923,7 @@
       <c r="K34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="38" t="s">
+      <c r="L34" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M34" s="36" t="s">
@@ -3668,26 +3938,36 @@
       <c r="P34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U34" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
+      <c r="Q34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z34" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3709,12 +3989,12 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="36" t="s">
@@ -3726,7 +4006,7 @@
       <c r="K35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M35" s="36" t="s">
@@ -3741,26 +4021,36 @@
       <c r="P35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S35" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
+      <c r="Q35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z35" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3782,12 +4072,12 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I36" s="36" t="s">
@@ -3799,7 +4089,7 @@
       <c r="K36" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M36" s="36" t="s">
@@ -3814,26 +4104,36 @@
       <c r="P36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R36" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
+      <c r="Q36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3851,16 +4151,16 @@
       </c>
       <c r="E37" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="36" t="s">
@@ -3872,7 +4172,7 @@
       <c r="K37" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L37" s="38" t="s">
+      <c r="L37" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M37" s="36" t="s">
@@ -3887,26 +4187,36 @@
       <c r="P37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R37" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S37" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T37" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U37" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
+      <c r="Q37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z37" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3924,16 +4234,16 @@
       </c>
       <c r="E38" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I38" s="36" t="s">
@@ -3945,7 +4255,7 @@
       <c r="K38" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="38" t="s">
+      <c r="L38" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M38" s="36" t="s">
@@ -3960,26 +4270,36 @@
       <c r="P38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S38" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T38" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U38" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
+      <c r="Q38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V38" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3997,16 +4317,16 @@
       </c>
       <c r="E39" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="36" t="s">
@@ -4018,7 +4338,7 @@
       <c r="K39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="38" t="s">
+      <c r="L39" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M39" s="36" t="s">
@@ -4033,26 +4353,36 @@
       <c r="P39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R39" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S39" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U39" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
+      <c r="Q39" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y39" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4070,16 +4400,16 @@
       </c>
       <c r="E40" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I40" s="36" t="s">
@@ -4091,7 +4421,7 @@
       <c r="K40" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M40" s="36" t="s">
@@ -4106,26 +4436,36 @@
       <c r="P40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S40" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T40" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
+      <c r="Q40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z40" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4143,16 +4483,16 @@
       </c>
       <c r="E41" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I41" s="36" t="s">
@@ -4164,7 +4504,7 @@
       <c r="K41" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="38" t="s">
+      <c r="L41" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M41" s="36" t="s">
@@ -4179,26 +4519,36 @@
       <c r="P41" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q41" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R41" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S41" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T41" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U41" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
+      <c r="Q41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z41" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4220,12 +4570,12 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="H42" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I42" s="36" t="s">
@@ -4237,7 +4587,7 @@
       <c r="K42" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M42" s="36" t="s">
@@ -4252,26 +4602,36 @@
       <c r="P42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R42" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T42" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U42" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
+      <c r="Q42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z42" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4293,12 +4653,12 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I43" s="36" t="s">
@@ -4310,7 +4670,7 @@
       <c r="K43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M43" s="36" t="s">
@@ -4325,26 +4685,36 @@
       <c r="P43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R43" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S43" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T43" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U43" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
+      <c r="Q43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z43" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4366,12 +4736,12 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I44" s="36" t="s">
@@ -4383,7 +4753,7 @@
       <c r="K44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M44" s="36" t="s">
@@ -4398,26 +4768,36 @@
       <c r="P44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="41"/>
+      <c r="Q44" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4439,12 +4819,12 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I45" s="36" t="s">
@@ -4456,7 +4836,7 @@
       <c r="K45" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M45" s="36" t="s">
@@ -4471,26 +4851,36 @@
       <c r="P45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U45" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
+      <c r="Q45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z45" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4508,16 +4898,16 @@
       </c>
       <c r="E46" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I46" s="36" t="s">
@@ -4529,7 +4919,7 @@
       <c r="K46" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="38" t="s">
+      <c r="L46" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M46" s="36" t="s">
@@ -4544,26 +4934,36 @@
       <c r="P46" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
+      <c r="Q46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z46" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4581,16 +4981,16 @@
       </c>
       <c r="E47" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="H47" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I47" s="36" t="s">
@@ -4602,7 +5002,7 @@
       <c r="K47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="L47" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M47" s="36" t="s">
@@ -4617,26 +5017,36 @@
       <c r="P47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R47" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S47" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T47" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U47" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
+      <c r="Q47" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4654,16 +5064,16 @@
       </c>
       <c r="E48" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I48" s="36" t="s">
@@ -4675,7 +5085,7 @@
       <c r="K48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="38" t="s">
+      <c r="L48" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M48" s="36" t="s">
@@ -4690,26 +5100,36 @@
       <c r="P48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q48" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R48" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S48" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T48" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U48" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
+      <c r="Q48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y48" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z48" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4727,16 +5147,16 @@
       </c>
       <c r="E49" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="38" t="s">
+      <c r="H49" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I49" s="36" t="s">
@@ -4748,7 +5168,7 @@
       <c r="K49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="38" t="s">
+      <c r="L49" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M49" s="36" t="s">
@@ -4763,26 +5183,36 @@
       <c r="P49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R49" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S49" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T49" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U49" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
+      <c r="Q49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z49" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4800,16 +5230,16 @@
       </c>
       <c r="E50" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="38" t="s">
+      <c r="H50" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I50" s="36" t="s">
@@ -4821,7 +5251,7 @@
       <c r="K50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="38" t="s">
+      <c r="L50" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M50" s="36" t="s">
@@ -4836,26 +5266,36 @@
       <c r="P50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R50" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S50" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T50" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U50" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
+      <c r="Q50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z50" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4873,16 +5313,16 @@
       </c>
       <c r="E51" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="38" t="s">
+      <c r="H51" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I51" s="36" t="s">
@@ -4894,7 +5334,7 @@
       <c r="K51" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="38" t="s">
+      <c r="L51" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M51" s="36" t="s">
@@ -4909,26 +5349,36 @@
       <c r="P51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q51" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R51" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S51" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T51" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U51" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
+      <c r="Q51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z51" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -4950,12 +5400,12 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I52" s="36" t="s">
@@ -4967,7 +5417,7 @@
       <c r="K52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M52" s="36" t="s">
@@ -4982,26 +5432,36 @@
       <c r="P52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R52" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S52" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T52" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U52" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41"/>
+      <c r="Q52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z52" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5023,12 +5483,12 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="38" t="s">
+      <c r="H53" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I53" s="36" t="s">
@@ -5040,7 +5500,7 @@
       <c r="K53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L53" s="38" t="s">
+      <c r="L53" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M53" s="36" t="s">
@@ -5055,26 +5515,36 @@
       <c r="P53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S53" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T53" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U53" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
+      <c r="Q53" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z53" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5092,16 +5562,16 @@
       </c>
       <c r="E54" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="38" t="s">
+      <c r="H54" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I54" s="36" t="s">
@@ -5113,7 +5583,7 @@
       <c r="K54" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L54" s="38" t="s">
+      <c r="L54" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M54" s="36" t="s">
@@ -5128,26 +5598,36 @@
       <c r="P54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q54" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R54" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S54" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T54" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U54" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
+      <c r="Q54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y54" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z54" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5169,12 +5649,12 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I55" s="36" t="s">
@@ -5186,7 +5666,7 @@
       <c r="K55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L55" s="38" t="s">
+      <c r="L55" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M55" s="36" t="s">
@@ -5201,26 +5681,36 @@
       <c r="P55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q55" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R55" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S55" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T55" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U55" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="41"/>
+      <c r="Q55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z55" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5242,12 +5732,12 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I56" s="36" t="s">
@@ -5259,7 +5749,7 @@
       <c r="K56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L56" s="38" t="s">
+      <c r="L56" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M56" s="36" t="s">
@@ -5274,26 +5764,36 @@
       <c r="P56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q56" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R56" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S56" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T56" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U56" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41"/>
-      <c r="Z56" s="41"/>
+      <c r="Q56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U56" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z56" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5315,12 +5815,12 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="38" t="s">
+      <c r="H57" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I57" s="36" t="s">
@@ -5332,7 +5832,7 @@
       <c r="K57" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L57" s="38" t="s">
+      <c r="L57" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M57" s="36" t="s">
@@ -5347,26 +5847,36 @@
       <c r="P57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q57" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R57" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S57" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T57" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U57" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
+      <c r="Q57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z57" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5384,16 +5894,16 @@
       </c>
       <c r="E58" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I58" s="36" t="s">
@@ -5405,7 +5915,7 @@
       <c r="K58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="38" t="s">
+      <c r="L58" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M58" s="36" t="s">
@@ -5420,26 +5930,36 @@
       <c r="P58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q58" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R58" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S58" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T58" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U58" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V58" s="41"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="41"/>
+      <c r="Q58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y58" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z58" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5461,12 +5981,12 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="38" t="s">
+      <c r="H59" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I59" s="36" t="s">
@@ -5478,7 +5998,7 @@
       <c r="K59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L59" s="38" t="s">
+      <c r="L59" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M59" s="36" t="s">
@@ -5493,26 +6013,36 @@
       <c r="P59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R59" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S59" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T59" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U59" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V59" s="41"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
+      <c r="Q59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z59" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5530,16 +6060,16 @@
       </c>
       <c r="E60" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="38" t="s">
+      <c r="H60" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="36" t="s">
@@ -5551,7 +6081,7 @@
       <c r="K60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L60" s="38" t="s">
+      <c r="L60" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M60" s="36" t="s">
@@ -5566,26 +6096,36 @@
       <c r="P60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q60" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R60" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S60" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T60" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U60" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
+      <c r="Q60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z60" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5603,16 +6143,16 @@
       </c>
       <c r="E61" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H61" s="38" t="s">
+      <c r="H61" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I61" s="36" t="s">
@@ -5624,7 +6164,7 @@
       <c r="K61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L61" s="38" t="s">
+      <c r="L61" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M61" s="36" t="s">
@@ -5639,26 +6179,36 @@
       <c r="P61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q61" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R61" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S61" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T61" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U61" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="41"/>
+      <c r="Q61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y61" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z61" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5676,16 +6226,16 @@
       </c>
       <c r="E62" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="38" t="s">
+      <c r="H62" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="36" t="s">
@@ -5697,7 +6247,7 @@
       <c r="K62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L62" s="38" t="s">
+      <c r="L62" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M62" s="36" t="s">
@@ -5712,26 +6262,36 @@
       <c r="P62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q62" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R62" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S62" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T62" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U62" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="41"/>
+      <c r="Q62" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V62" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z62" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -5749,16 +6309,16 @@
       </c>
       <c r="E63" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I63" s="36" t="s">
@@ -5770,7 +6330,7 @@
       <c r="K63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="38" t="s">
+      <c r="L63" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M63" s="36" t="s">
@@ -5785,26 +6345,36 @@
       <c r="P63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R63" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S63" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T63" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U63" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="41"/>
-      <c r="Z63" s="41"/>
+      <c r="Q63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T63" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V63" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y63" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z63" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -5822,16 +6392,16 @@
       </c>
       <c r="E64" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="38" t="s">
+      <c r="H64" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I64" s="36" t="s">
@@ -5843,7 +6413,7 @@
       <c r="K64" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="38" t="s">
+      <c r="L64" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M64" s="36" t="s">
@@ -5858,26 +6428,36 @@
       <c r="P64" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q64" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R64" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S64" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T64" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U64" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
+      <c r="Q64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X64" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y64" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z64" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5895,16 +6475,16 @@
       </c>
       <c r="E65" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="38" t="s">
+      <c r="H65" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I65" s="36" t="s">
@@ -5916,7 +6496,7 @@
       <c r="K65" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="38" t="s">
+      <c r="L65" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M65" s="36" t="s">
@@ -5931,26 +6511,36 @@
       <c r="P65" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q65" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R65" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S65" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T65" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U65" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
+      <c r="Q65" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z65" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -5968,16 +6558,16 @@
       </c>
       <c r="E66" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="38" t="s">
+      <c r="H66" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I66" s="36" t="s">
@@ -5989,7 +6579,7 @@
       <c r="K66" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L66" s="38" t="s">
+      <c r="L66" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M66" s="36" t="s">
@@ -6004,26 +6594,36 @@
       <c r="P66" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R66" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S66" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T66" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U66" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V66" s="41"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="41"/>
+      <c r="Q66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V66" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W66" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X66" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y66" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z66" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6045,12 +6645,12 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I67" s="36" t="s">
@@ -6062,7 +6662,7 @@
       <c r="K67" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="38" t="s">
+      <c r="L67" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M67" s="36" t="s">
@@ -6077,26 +6677,36 @@
       <c r="P67" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q67" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R67" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S67" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T67" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U67" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
+      <c r="Q67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z67" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6118,12 +6728,12 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="38" t="s">
+      <c r="H68" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I68" s="36" t="s">
@@ -6135,7 +6745,7 @@
       <c r="K68" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L68" s="38" t="s">
+      <c r="L68" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M68" s="36" t="s">
@@ -6150,26 +6760,36 @@
       <c r="P68" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q68" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R68" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S68" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T68" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U68" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V68" s="41"/>
-      <c r="W68" s="41"/>
-      <c r="X68" s="41"/>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="41"/>
+      <c r="Q68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U68" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y68" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6187,16 +6807,16 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="38" t="s">
+      <c r="H69" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I69" s="36" t="s">
@@ -6208,7 +6828,7 @@
       <c r="K69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="38" t="s">
+      <c r="L69" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M69" s="36" t="s">
@@ -6223,26 +6843,36 @@
       <c r="P69" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q69" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R69" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S69" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T69" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U69" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
+      <c r="Q69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z69" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6260,16 +6890,16 @@
       </c>
       <c r="E70" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="38" t="s">
+      <c r="H70" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I70" s="36" t="s">
@@ -6281,7 +6911,7 @@
       <c r="K70" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L70" s="38" t="s">
+      <c r="L70" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M70" s="36" t="s">
@@ -6296,26 +6926,36 @@
       <c r="P70" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q70" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R70" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S70" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T70" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U70" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V70" s="41"/>
-      <c r="W70" s="41"/>
-      <c r="X70" s="41"/>
-      <c r="Y70" s="41"/>
-      <c r="Z70" s="41"/>
+      <c r="Q70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X70" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y70" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z70" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6333,16 +6973,16 @@
       </c>
       <c r="E71" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="38" t="s">
+      <c r="H71" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I71" s="36" t="s">
@@ -6354,7 +6994,7 @@
       <c r="K71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L71" s="38" t="s">
+      <c r="L71" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M71" s="36" t="s">
@@ -6369,26 +7009,36 @@
       <c r="P71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q71" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R71" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S71" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T71" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U71" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V71" s="41"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="41"/>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="41"/>
+      <c r="Q71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V71" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W71" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="X71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z71" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6410,12 +7060,12 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H72" s="38" t="s">
+      <c r="H72" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="36" t="s">
@@ -6427,7 +7077,7 @@
       <c r="K72" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L72" s="38" t="s">
+      <c r="L72" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M72" s="36" t="s">
@@ -6442,26 +7092,36 @@
       <c r="P72" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q72" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R72" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S72" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T72" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U72" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V72" s="41"/>
-      <c r="W72" s="41"/>
-      <c r="X72" s="41"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="41"/>
+      <c r="Q72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y72" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z72" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -6479,16 +7139,16 @@
       </c>
       <c r="E73" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="38" t="s">
+      <c r="H73" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I73" s="36" t="s">
@@ -6500,7 +7160,7 @@
       <c r="K73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L73" s="38" t="s">
+      <c r="L73" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M73" s="36" t="s">
@@ -6515,26 +7175,36 @@
       <c r="P73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q73" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R73" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S73" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T73" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U73" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V73" s="41"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
+      <c r="Q73" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U73" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V73" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z73" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -6552,16 +7222,16 @@
       </c>
       <c r="E74" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H74" s="38" t="s">
+      <c r="H74" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I74" s="36" t="s">
@@ -6573,7 +7243,7 @@
       <c r="K74" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="38" t="s">
+      <c r="L74" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M74" s="36" t="s">
@@ -6588,26 +7258,36 @@
       <c r="P74" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R74" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V74" s="41"/>
-      <c r="W74" s="41"/>
-      <c r="X74" s="41"/>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
+      <c r="Q74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z74" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -6625,16 +7305,16 @@
       </c>
       <c r="E75" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="38" t="s">
+      <c r="H75" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I75" s="36" t="s">
@@ -6646,7 +7326,7 @@
       <c r="K75" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L75" s="38" t="s">
+      <c r="L75" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M75" s="36" t="s">
@@ -6661,26 +7341,36 @@
       <c r="P75" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q75" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R75" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S75" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T75" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U75" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
+      <c r="Q75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y75" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z75" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -6698,16 +7388,16 @@
       </c>
       <c r="E76" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H76" s="38" t="s">
+      <c r="H76" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I76" s="36" t="s">
@@ -6719,7 +7409,7 @@
       <c r="K76" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="38" t="s">
+      <c r="L76" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M76" s="36" t="s">
@@ -6734,26 +7424,36 @@
       <c r="P76" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q76" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R76" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S76" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T76" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U76" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V76" s="41"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
+      <c r="Q76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U76" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V76" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z76" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -6775,12 +7475,12 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H77" s="38" t="s">
+      <c r="H77" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I77" s="36" t="s">
@@ -6792,7 +7492,7 @@
       <c r="K77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="38" t="s">
+      <c r="L77" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M77" s="36" t="s">
@@ -6807,26 +7507,36 @@
       <c r="P77" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q77" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R77" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S77" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T77" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U77" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="V77" s="41"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="41"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
+      <c r="Q77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T77" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U77" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z77" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -6844,16 +7554,16 @@
       </c>
       <c r="E78" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I78" s="36" t="s">
@@ -6865,7 +7575,7 @@
       <c r="K78" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="38" t="s">
+      <c r="L78" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M78" s="36" t="s">
@@ -6880,26 +7590,36 @@
       <c r="P78" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q78" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R78" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S78" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T78" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U78" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
+      <c r="Q78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R78" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z78" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -6921,12 +7641,12 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="38" t="s">
+      <c r="H79" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I79" s="36" t="s">
@@ -6938,7 +7658,7 @@
       <c r="K79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="38" t="s">
+      <c r="L79" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M79" s="36" t="s">
@@ -6953,26 +7673,36 @@
       <c r="P79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q79" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R79" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S79" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T79" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U79" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V79" s="41"/>
-      <c r="W79" s="41"/>
-      <c r="X79" s="41"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
+      <c r="Q79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S79" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z79" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -6990,16 +7720,16 @@
       </c>
       <c r="E80" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H80" s="38" t="s">
+      <c r="H80" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I80" s="36" t="s">
@@ -7011,7 +7741,7 @@
       <c r="K80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="38" t="s">
+      <c r="L80" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M80" s="36" t="s">
@@ -7026,26 +7756,36 @@
       <c r="P80" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q80" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R80" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S80" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T80" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U80" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V80" s="41"/>
-      <c r="W80" s="41"/>
-      <c r="X80" s="41"/>
-      <c r="Y80" s="41"/>
-      <c r="Z80" s="41"/>
+      <c r="Q80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W80" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="X80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z80" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -7067,12 +7807,12 @@
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H81" s="38" t="s">
+      <c r="H81" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I81" s="36" t="s">
@@ -7084,7 +7824,7 @@
       <c r="K81" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="38" t="s">
+      <c r="L81" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M81" s="36" t="s">
@@ -7099,26 +7839,36 @@
       <c r="P81" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q81" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R81" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S81" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T81" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U81" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V81" s="41"/>
-      <c r="W81" s="41"/>
-      <c r="X81" s="41"/>
-      <c r="Y81" s="41"/>
-      <c r="Z81" s="41"/>
+      <c r="Q81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T81" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z81" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -7136,16 +7886,16 @@
       </c>
       <c r="E82" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H82" s="38" t="s">
+      <c r="H82" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I82" s="36" t="s">
@@ -7157,7 +7907,7 @@
       <c r="K82" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="38" t="s">
+      <c r="L82" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M82" s="36" t="s">
@@ -7172,26 +7922,36 @@
       <c r="P82" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q82" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R82" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S82" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T82" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U82" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V82" s="41"/>
-      <c r="W82" s="41"/>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
+      <c r="Q82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V82" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X82" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z82" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -7209,16 +7969,16 @@
       </c>
       <c r="E83" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="38" t="s">
+      <c r="H83" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I83" s="36" t="s">
@@ -7230,7 +7990,7 @@
       <c r="K83" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="38" t="s">
+      <c r="L83" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M83" s="36" t="s">
@@ -7245,26 +8005,36 @@
       <c r="P83" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q83" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R83" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S83" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T83" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U83" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V83" s="41"/>
-      <c r="W83" s="41"/>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
+      <c r="Q83" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V83" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z83" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -7286,12 +8056,12 @@
       </c>
       <c r="F84" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="38" t="s">
+      <c r="H84" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I84" s="36" t="s">
@@ -7303,7 +8073,7 @@
       <c r="K84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="38" t="s">
+      <c r="L84" s="37" t="s">
         <v>42</v>
       </c>
       <c r="M84" s="36" t="s">
@@ -7318,26 +8088,36 @@
       <c r="P84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q84" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R84" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S84" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T84" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U84" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V84" s="41"/>
-      <c r="W84" s="41"/>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
+      <c r="Q84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y84" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z84" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -7359,12 +8139,12 @@
       </c>
       <c r="F85" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H85" s="38" t="s">
+      <c r="H85" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I85" s="36" t="s">
@@ -7376,7 +8156,7 @@
       <c r="K85" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L85" s="38" t="s">
+      <c r="L85" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M85" s="36" t="s">
@@ -7391,34 +8171,44 @@
       <c r="P85" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q85" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R85" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="S85" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T85" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U85" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="V85" s="41"/>
-      <c r="W85" s="41"/>
-      <c r="X85" s="41"/>
-      <c r="Y85" s="41"/>
-      <c r="Z85" s="41"/>
+      <c r="Q85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z85" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="31">
         <v>80.0</v>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="34" t="s">
         <v>10</v>
       </c>
@@ -7431,32 +8221,32 @@
         <v>0</v>
       </c>
       <c r="G86" s="36"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
-      <c r="V86" s="41"/>
-      <c r="W86" s="41"/>
-      <c r="X86" s="41"/>
-      <c r="Y86" s="41"/>
-      <c r="Z86" s="41"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="43"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="31">
         <v>81.0</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="34" t="s">
         <v>10</v>
       </c>
@@ -7468,34 +8258,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="31">
         <v>82.0</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="34" t="s">
         <v>10</v>
       </c>
@@ -7507,34 +8297,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="41"/>
-      <c r="W88" s="41"/>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="41"/>
-      <c r="Z88" s="41"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="31">
         <v>83.0</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="34" t="s">
         <v>10</v>
       </c>
@@ -7546,34 +8336,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="41"/>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="41"/>
-      <c r="Z89" s="41"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="43"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="31">
         <v>84.0</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="34" t="s">
         <v>10</v>
       </c>
@@ -7585,34 +8375,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="41"/>
-      <c r="W90" s="41"/>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="41"/>
-      <c r="Z90" s="41"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="43"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="43"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="31">
         <v>85.0</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="34" t="s">
         <v>10</v>
       </c>
@@ -7624,26 +8414,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41"/>
-      <c r="W91" s="41"/>
-      <c r="X91" s="41"/>
-      <c r="Y91" s="41"/>
-      <c r="Z91" s="41"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
